--- a/target/test-classes/Data.xlsx
+++ b/target/test-classes/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Browser</t>
   </si>
@@ -125,7 +125,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>ladies803</t>
+    <t>ladies472</t>
   </si>
   <si>
     <t>ShowsName</t>
@@ -137,7 +137,7 @@
     <t>Women</t>
   </si>
   <si>
-    <t>https://jatango.com/live/september-blooms/women733</t>
+    <t>https://jatango.com/live/september-blooms/women594</t>
   </si>
   <si>
     <t>https://jatango.com/live/september-blooms/handbag891</t>
@@ -153,15 +153,6 @@
   </si>
   <si>
     <t>IceCream@2024</t>
-  </si>
-  <si>
-    <t>ladies663</t>
-  </si>
-  <si>
-    <t>jatango.com/live/september-blooms/women936</t>
-  </si>
-  <si>
-    <t>https://jatango.com/live/september-blooms/women936</t>
   </si>
 </sst>
 </file>
@@ -841,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,16 +1181,16 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.0909090909091" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.9090909090909" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.4545454545455" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.1818181818182" collapsed="true"/>
+    <col min="1" max="1" width="10.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="29.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="20.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1290,12 +1281,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.2727272727273" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.5454545454545" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.1818181818182" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5454545454545" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.9090909090909" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.60546875" collapsed="true"/>
+    <col min="1" max="1" width="12.2727272727273" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6090909090909" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1353,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1374,8 +1365,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.9090909090909" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="52.921875" collapsed="true"/>
+    <col min="1" max="1" width="14.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.9181818181818" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1391,7 +1382,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -1402,7 +1393,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://jatango.com/live/september-blooms/handbag891"/>
-    <hyperlink ref="B2" r:id="rId1" display="https://jatango.com/live/september-blooms/women733"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://jatango.com/live/september-blooms/women594"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1415,7 +1406,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
